--- a/docs/pages/tools/appearance_table_maker/excel/a_男女共用ヘアスタイル.xlsx
+++ b/docs/pages/tools/appearance_table_maker/excel/a_男女共用ヘアスタイル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Desktop\git_repository\PSNOVA\docs\pages\tools\appearance_table_maker\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53681D2F-9F85-43B4-9D51-5E20195BFBAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CD7914-2E85-4B54-984F-677D3A9BD801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>名前</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>ミディアムエッジ</t>
+  </si>
+  <si>
+    <t>ゲームスタート時から選択可能。</t>
   </si>
 </sst>
 </file>
@@ -391,7 +394,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -411,55 +414,88 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
